--- a/TENG_output/CFLoading_Voltage.xlsx
+++ b/TENG_output/CFLoading_Voltage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\PhD_reports\TENG_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB59819-CB83-4DFB-BBD1-130BC78EA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89488333-604D-4ED2-A584-E08E70F37D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{99CCF56E-D121-4359-A2F3-671B0DE97E70}"/>
   </bookViews>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,12 +97,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -441,353 +461,353 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>18.8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>22.4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>22.4</v>
+      <c r="C2" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>32</v>
       </c>
       <c r="J2" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="K2" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>9</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>12.2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>7.4</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>11.4</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>5.8</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>5.6</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>19.399999999999999</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>23.2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="J3">
+        <v>26.8</v>
+      </c>
+      <c r="K3">
+        <v>29.2</v>
+      </c>
+      <c r="L3">
         <v>16.8</v>
       </c>
-      <c r="E3" s="1">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>22.4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>29.2</v>
-      </c>
-      <c r="L3" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>19.600000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>9.6</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>13.4</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>7.4</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>10.4</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>5.8</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>19.2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>7.2</v>
       </c>
-      <c r="C4" s="1">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>20.6</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="C4" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="J4">
+        <v>27.2</v>
+      </c>
+      <c r="K4">
+        <v>22.8</v>
+      </c>
+      <c r="L4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N4">
+        <v>9.5</v>
+      </c>
+      <c r="O4">
+        <v>13.6</v>
+      </c>
+      <c r="P4">
+        <v>7.4</v>
+      </c>
+      <c r="Q4">
         <v>9.6</v>
       </c>
-      <c r="I4" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="L4" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M4" s="1">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="R4">
         <v>7.4</v>
       </c>
-      <c r="Q4" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="R4" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>9.4</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>5.6</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>18.399999999999999</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G5" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>22.4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="G5" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="J5">
+        <v>26.8</v>
+      </c>
+      <c r="K5">
         <v>21.6</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>16.399999999999999</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>19.2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>9.6</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>13.4</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>6.8</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>9.4</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>8.6</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>5.8</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>7.2</v>
       </c>
-      <c r="C6" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>25.2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="C6" s="3">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
         <v>24.8</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>16.8</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>19.8</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>9.4</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>13.2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>6.2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>10.4</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6">
         <v>5.8</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>5.8</v>
       </c>
     </row>
